--- a/BlockTypes.xlsx
+++ b/BlockTypes.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LDPlay Asset Source Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LDPlay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49038C9B-E6E9-4494-AA60-05F8C94936C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32199A12-CB74-4614-90EE-7C4AF4E2B269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{0C60AB3C-82F7-4D00-934D-DF22B92E9E77}"/>
   </bookViews>
   <sheets>
-    <sheet name="BlockType Definitions" sheetId="3" r:id="rId1"/>
-    <sheet name="Colors (source)" sheetId="2" r:id="rId2"/>
-    <sheet name="Colors (filtered)" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="BlockType Definitions" sheetId="3" r:id="rId2"/>
+    <sheet name="Colors (source)" sheetId="2" r:id="rId3"/>
+    <sheet name="Colors (filtered)" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="681">
   <si>
     <t>0 !COLOUR</t>
   </si>
@@ -2088,6 +2089,15 @@
   </si>
   <si>
     <t>orientations stored in save file to reduce block IDs!!!</t>
+  </si>
+  <si>
+    <t>Each voxel saved as a byte which can hold up to 2^8 = 256 unique block IDs</t>
+  </si>
+  <si>
+    <t>Planet Seed = Int32 which can hold up to 2,147,483,647 unique values</t>
+  </si>
+  <si>
+    <t>World Coord = Int32 which can hold up to 2,147,483,647 unique values</t>
   </si>
 </sst>
 </file>
@@ -2536,11 +2546,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AE6699-DCF2-4B3F-A092-79CA25402A34}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F7BB64-65A9-48C6-AE17-93F3C7222BE8}">
   <dimension ref="A1:U258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4606,7 +4644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526784A4-4FD2-4332-BC01-24DE6085A369}">
   <dimension ref="A1:G170"/>
   <sheetViews>
@@ -7009,7 +7047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692354F1-FBB8-45C8-8585-EA1C7793F7B8}">
   <dimension ref="A1:G86"/>
   <sheetViews>

--- a/BlockTypes.xlsx
+++ b/BlockTypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LDPlay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32199A12-CB74-4614-90EE-7C4AF4E2B269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39708BB-0EC5-4AAE-B33B-4A451969230F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{0C60AB3C-82F7-4D00-934D-DF22B92E9E77}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="682">
   <si>
     <t>0 !COLOUR</t>
   </si>
@@ -2098,6 +2098,9 @@
   </si>
   <si>
     <t>World Coord = Int32 which can hold up to 2,147,483,647 unique values</t>
+  </si>
+  <si>
+    <t>until can figure out how to trasmit chunk voxelState info as binary, need to keep using strings which require remapping to 81 char limit (voxelTypes limited to 81)</t>
   </si>
 </sst>
 </file>
@@ -2147,14 +2150,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2547,9 +2546,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AE6699-DCF2-4B3F-A092-79CA25402A34}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2566,6 +2567,11 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -7099,7 +7105,7 @@
       <c r="B2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>66</v>
       </c>
       <c r="D2" s="2" t="str">
@@ -7118,46 +7124,42 @@
       </c>
     </row>
     <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="5" t="str">
+      <c r="D3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
-      <c r="E3" s="4" t="str">
+      <c r="E3" t="str">
         <f>"""" &amp; Table1[[#This Row],[Hex Value]] &amp; """" &amp; ","</f>
         <v>"#C8C8C8",</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>326</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>327</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" t="s">
         <v>325</v>
       </c>
-      <c r="D4" s="5" t="str">
+      <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>503</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" t="str">
         <f>"""" &amp; Table1[[#This Row],[Hex Value]] &amp; """" &amp; ","</f>
         <v>"#BCB4A5",</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -7166,7 +7168,7 @@
       <c r="B5" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>134</v>
       </c>
       <c r="D5" s="2" t="str">
@@ -7185,7 +7187,7 @@
       <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="2" t="str">
@@ -7210,7 +7212,7 @@
       <c r="B7" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>138</v>
       </c>
       <c r="D7" s="2" t="str">
@@ -7229,7 +7231,7 @@
       <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="2" t="str">
@@ -7248,7 +7250,7 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="str">
@@ -7267,25 +7269,23 @@
       </c>
     </row>
     <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>286</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>287</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" t="s">
         <v>285</v>
       </c>
-      <c r="D10" s="5" t="str">
+      <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>335</v>
       </c>
-      <c r="E10" s="4" t="str">
+      <c r="E10" t="str">
         <f>"""" &amp; Table1[[#This Row],[Hex Value]] &amp; """" &amp; ","</f>
         <v>"#88605E",</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -7294,7 +7294,7 @@
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="2" t="str">
@@ -7313,25 +7313,23 @@
       </c>
     </row>
     <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>223</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" t="s">
         <v>221</v>
       </c>
-      <c r="D12" s="5" t="str">
+      <c r="D12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="E12" s="4" t="str">
+      <c r="E12" t="str">
         <f>"""" &amp; Table1[[#This Row],[Hex Value]] &amp; """" &amp; ","</f>
         <v>"#872B17",</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -7340,7 +7338,7 @@
       <c r="B13" t="s">
         <v>263</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
         <v>261</v>
       </c>
       <c r="D13" s="2" t="str">
@@ -7365,7 +7363,7 @@
       <c r="B14" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>122</v>
       </c>
       <c r="D14" s="2" t="str">
@@ -7384,7 +7382,7 @@
       <c r="B15" t="s">
         <v>204</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>202</v>
       </c>
       <c r="D15" s="2" t="str">
@@ -7403,7 +7401,7 @@
       <c r="B16" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="2" t="str">
@@ -7422,7 +7420,7 @@
       <c r="B17" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>94</v>
       </c>
       <c r="D17" s="2" t="str">
@@ -7447,7 +7445,7 @@
       <c r="B18" t="s">
         <v>299</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>297</v>
       </c>
       <c r="D18" s="2" t="str">
@@ -7466,7 +7464,7 @@
       <c r="B19" t="s">
         <v>315</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>313</v>
       </c>
       <c r="D19" s="2" t="str">
@@ -7485,7 +7483,7 @@
       <c r="B20" t="s">
         <v>319</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>317</v>
       </c>
       <c r="D20" s="2" t="str">
@@ -7504,7 +7502,7 @@
       <c r="B21" t="s">
         <v>330</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>328</v>
       </c>
       <c r="D21" s="2" t="str">
@@ -7523,7 +7521,7 @@
       <c r="B22" t="s">
         <v>334</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>332</v>
       </c>
       <c r="D22" s="2" t="str">
@@ -7542,7 +7540,7 @@
       <c r="B23" t="s">
         <v>338</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s">
         <v>336</v>
       </c>
       <c r="D23" s="2" t="str">
@@ -7561,7 +7559,7 @@
       <c r="B24" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s">
         <v>158</v>
       </c>
       <c r="D24" s="2" t="str">
@@ -7580,7 +7578,7 @@
       <c r="B25" t="s">
         <v>323</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s">
         <v>321</v>
       </c>
       <c r="D25" s="2" t="str">
@@ -7605,7 +7603,7 @@
       <c r="B26" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s">
         <v>78</v>
       </c>
       <c r="D26" s="2" t="str">
@@ -7630,7 +7628,7 @@
       <c r="B27" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" t="s">
         <v>154</v>
       </c>
       <c r="D27" s="2" t="str">
@@ -7649,7 +7647,7 @@
       <c r="B28" t="s">
         <v>176</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" t="s">
         <v>174</v>
       </c>
       <c r="D28" s="2" t="str">
@@ -7668,7 +7666,7 @@
       <c r="B29" t="s">
         <v>207</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" t="s">
         <v>205</v>
       </c>
       <c r="D29" s="2" t="str">
@@ -7687,7 +7685,7 @@
       <c r="B30" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" t="s">
         <v>106</v>
       </c>
       <c r="D30" s="2" t="str">
@@ -7706,7 +7704,7 @@
       <c r="B31" t="s">
         <v>168</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" t="s">
         <v>166</v>
       </c>
       <c r="D31" s="2" t="str">
@@ -7725,7 +7723,7 @@
       <c r="B32" t="s">
         <v>132</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" t="s">
         <v>130</v>
       </c>
       <c r="D32" s="2" t="str">
@@ -7744,7 +7742,7 @@
       <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="2" t="str">
@@ -7769,7 +7767,7 @@
       <c r="B34" t="s">
         <v>255</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" t="s">
         <v>253</v>
       </c>
       <c r="D34" s="2" t="str">
@@ -7788,7 +7786,7 @@
       <c r="B35" t="s">
         <v>235</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" t="s">
         <v>233</v>
       </c>
       <c r="D35" s="2" t="str">
@@ -7807,7 +7805,7 @@
       <c r="B36" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" t="s">
         <v>74</v>
       </c>
       <c r="D36" s="2" t="str">
@@ -7826,7 +7824,7 @@
       <c r="B37" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" t="s">
         <v>62</v>
       </c>
       <c r="D37" s="2" t="str">
@@ -7851,7 +7849,7 @@
       <c r="B38" t="s">
         <v>215</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" t="s">
         <v>213</v>
       </c>
       <c r="D38" s="2" t="str">
@@ -7876,7 +7874,7 @@
       <c r="B39" t="s">
         <v>200</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" t="s">
         <v>198</v>
       </c>
       <c r="D39" s="2" t="str">
@@ -7895,7 +7893,7 @@
       <c r="B40" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" t="s">
         <v>190</v>
       </c>
       <c r="D40" s="2" t="str">
@@ -7914,7 +7912,7 @@
       <c r="B41" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" t="s">
         <v>102</v>
       </c>
       <c r="D41" s="2" t="str">
@@ -7939,7 +7937,7 @@
       <c r="B42" t="s">
         <v>279</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" t="s">
         <v>277</v>
       </c>
       <c r="D42" s="2" t="str">
@@ -7958,7 +7956,7 @@
       <c r="B43" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" t="s">
         <v>70</v>
       </c>
       <c r="D43" s="2" t="str">
@@ -7977,7 +7975,7 @@
       <c r="B44" t="s">
         <v>342</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" t="s">
         <v>340</v>
       </c>
       <c r="D44" s="2" t="str">
@@ -7996,7 +7994,7 @@
       <c r="B45" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="2" t="str">
@@ -8015,7 +8013,7 @@
       <c r="B46" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" t="s">
         <v>146</v>
       </c>
       <c r="D46" s="2" t="str">
@@ -8034,7 +8032,7 @@
       <c r="B47" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="str">
@@ -8059,7 +8057,7 @@
       <c r="B48" t="s">
         <v>247</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" t="s">
         <v>245</v>
       </c>
       <c r="D48" s="2" t="str">
@@ -8078,7 +8076,7 @@
       <c r="B49" t="s">
         <v>307</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" t="s">
         <v>305</v>
       </c>
       <c r="D49" s="2" t="str">
@@ -8103,7 +8101,7 @@
       <c r="B50" t="s">
         <v>283</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" t="s">
         <v>281</v>
       </c>
       <c r="D50" s="2" t="str">
@@ -8122,7 +8120,7 @@
       <c r="B51" t="s">
         <v>275</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" t="s">
         <v>273</v>
       </c>
       <c r="D51" s="2" t="str">
@@ -8141,7 +8139,7 @@
       <c r="B52" t="s">
         <v>196</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" t="s">
         <v>194</v>
       </c>
       <c r="D52" s="2" t="str">
@@ -8160,7 +8158,7 @@
       <c r="B53" t="s">
         <v>259</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" t="s">
         <v>257</v>
       </c>
       <c r="D53" s="2" t="str">
@@ -8179,7 +8177,7 @@
       <c r="B54" t="s">
         <v>219</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" t="s">
         <v>217</v>
       </c>
       <c r="D54" s="2" t="str">
@@ -8198,7 +8196,7 @@
       <c r="B55" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" t="s">
         <v>42</v>
       </c>
       <c r="D55" s="2" t="str">
@@ -8217,7 +8215,7 @@
       <c r="B56" t="s">
         <v>239</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" t="s">
         <v>237</v>
       </c>
       <c r="D56" s="2" t="str">
@@ -8236,7 +8234,7 @@
       <c r="B57" t="s">
         <v>271</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" t="s">
         <v>269</v>
       </c>
       <c r="D57" s="2" t="str">
@@ -8261,7 +8259,7 @@
       <c r="B58" t="s">
         <v>267</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" t="s">
         <v>265</v>
       </c>
       <c r="D58" s="2" t="str">
@@ -8280,7 +8278,7 @@
       <c r="B59" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" t="s">
         <v>50</v>
       </c>
       <c r="D59" s="2" t="str">
@@ -8299,7 +8297,7 @@
       <c r="B60" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="str">
@@ -8324,7 +8322,7 @@
       <c r="B61" t="s">
         <v>144</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" t="s">
         <v>142</v>
       </c>
       <c r="D61" s="2" t="str">
@@ -8349,7 +8347,7 @@
       <c r="B62" t="s">
         <v>311</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" t="s">
         <v>309</v>
       </c>
       <c r="D62" s="2" t="str">
@@ -8368,7 +8366,7 @@
       <c r="B63" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="2" t="str">
@@ -8393,7 +8391,7 @@
       <c r="B64" t="s">
         <v>243</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" t="s">
         <v>241</v>
       </c>
       <c r="D64" s="2" t="str">
@@ -8418,7 +8416,7 @@
       <c r="B65" t="s">
         <v>172</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" t="s">
         <v>170</v>
       </c>
       <c r="D65" s="2" t="str">
@@ -8437,7 +8435,7 @@
       <c r="B66" t="s">
         <v>92</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" t="s">
         <v>90</v>
       </c>
       <c r="D66" s="2" t="str">
@@ -8456,7 +8454,7 @@
       <c r="B67" t="s">
         <v>84</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" t="s">
         <v>82</v>
       </c>
       <c r="D67" s="2" t="str">
@@ -8475,7 +8473,7 @@
       <c r="B68" t="s">
         <v>184</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" t="s">
         <v>182</v>
       </c>
       <c r="D68" s="2" t="str">
@@ -8494,7 +8492,7 @@
       <c r="B69" t="s">
         <v>188</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" t="s">
         <v>186</v>
       </c>
       <c r="D69" s="2" t="str">
@@ -8513,7 +8511,7 @@
       <c r="B70" t="s">
         <v>303</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" t="s">
         <v>301</v>
       </c>
       <c r="D70" s="2" t="str">
@@ -8532,7 +8530,7 @@
       <c r="B71" t="s">
         <v>120</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" t="s">
         <v>118</v>
       </c>
       <c r="D71" s="2" t="str">
@@ -8551,7 +8549,7 @@
       <c r="B72" t="s">
         <v>116</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" t="s">
         <v>114</v>
       </c>
       <c r="D72" s="2" t="str">
@@ -8576,7 +8574,7 @@
       <c r="B73" t="s">
         <v>227</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" t="s">
         <v>225</v>
       </c>
       <c r="D73" s="2" t="str">
@@ -8595,7 +8593,7 @@
       <c r="B74" t="s">
         <v>231</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" t="s">
         <v>229</v>
       </c>
       <c r="D74" s="2" t="str">
@@ -8614,7 +8612,7 @@
       <c r="B75" t="s">
         <v>164</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" t="s">
         <v>162</v>
       </c>
       <c r="D75" s="2" t="str">
@@ -8633,7 +8631,7 @@
       <c r="B76" t="s">
         <v>100</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" t="s">
         <v>98</v>
       </c>
       <c r="D76" s="2" t="str">
@@ -8658,7 +8656,7 @@
       <c r="B77" t="s">
         <v>88</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" t="s">
         <v>86</v>
       </c>
       <c r="D77" s="2" t="str">
@@ -8677,7 +8675,7 @@
       <c r="B78" t="s">
         <v>128</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" t="s">
         <v>126</v>
       </c>
       <c r="D78" s="2" t="str">
@@ -8696,7 +8694,7 @@
       <c r="B79" t="s">
         <v>152</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" t="s">
         <v>150</v>
       </c>
       <c r="D79" s="2" t="str">
@@ -8715,7 +8713,7 @@
       <c r="B80" t="s">
         <v>180</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" t="s">
         <v>178</v>
       </c>
       <c r="D80" s="2" t="str">
@@ -8734,7 +8732,7 @@
       <c r="B81" t="s">
         <v>60</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="2" t="str">
@@ -8753,7 +8751,7 @@
       <c r="B82" t="s">
         <v>112</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" t="s">
         <v>110</v>
       </c>
       <c r="D82" s="2" t="str">
@@ -8778,7 +8776,7 @@
       <c r="B83" t="s">
         <v>251</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" t="s">
         <v>249</v>
       </c>
       <c r="D83" s="2" t="str">
@@ -8797,7 +8795,7 @@
       <c r="B84" t="s">
         <v>291</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" t="s">
         <v>289</v>
       </c>
       <c r="D84" s="2" t="str">
@@ -8816,7 +8814,7 @@
       <c r="B85" t="s">
         <v>295</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" t="s">
         <v>293</v>
       </c>
       <c r="D85" s="2" t="str">
@@ -8835,7 +8833,7 @@
       <c r="B86" t="s">
         <v>27</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="str">

--- a/BlockTypes.xlsx
+++ b/BlockTypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LDPlay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39708BB-0EC5-4AAE-B33B-4A451969230F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C32518-6BA0-4341-AE3A-FB9CDA5E0345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{0C60AB3C-82F7-4D00-934D-DF22B92E9E77}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="681">
   <si>
     <t>0 !COLOUR</t>
   </si>
@@ -2098,9 +2098,6 @@
   </si>
   <si>
     <t>World Coord = Int32 which can hold up to 2,147,483,647 unique values</t>
-  </si>
-  <si>
-    <t>until can figure out how to trasmit chunk voxelState info as binary, need to keep using strings which require remapping to 81 char limit (voxelTypes limited to 81)</t>
   </si>
 </sst>
 </file>
@@ -2546,10 +2543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AE6699-DCF2-4B3F-A092-79CA25402A34}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2567,11 +2564,6 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>678</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>681</v>
       </c>
     </row>
   </sheetData>

--- a/BlockTypes.xlsx
+++ b/BlockTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LDPlay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C32518-6BA0-4341-AE3A-FB9CDA5E0345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C7BD0B-EF60-40A0-9584-E1947FF15EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{0C60AB3C-82F7-4D00-934D-DF22B92E9E77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0C60AB3C-82F7-4D00-934D-DF22B92E9E77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="695">
   <si>
     <t>0 !COLOUR</t>
   </si>
@@ -1113,24 +1113,6 @@
     <t>ID #</t>
   </si>
   <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
     <t>06</t>
   </si>
   <si>
@@ -1143,21 +1125,12 @@
     <t>09</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -1170,9 +1143,6 @@
     <t>18</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -1185,39 +1155,6 @@
     <t>23</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>Air</t>
   </si>
   <si>
@@ -1287,201 +1224,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
@@ -2098,13 +1840,313 @@
   </si>
   <si>
     <t>World Coord = Int32 which can hold up to 2,147,483,647 unique values</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>084</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>088</t>
+  </si>
+  <si>
+    <t>089</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>092</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>094</t>
+  </si>
+  <si>
+    <t>095</t>
+  </si>
+  <si>
+    <t>096</t>
+  </si>
+  <si>
+    <t>097</t>
+  </si>
+  <si>
+    <t>098</t>
+  </si>
+  <si>
+    <t>099</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2126,13 +2168,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2147,15 +2203,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2169,9 +2231,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2193,10 +2252,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{68A64BE8-5F02-4EF3-AF08-278CE5962617}" name="Table2" displayName="Table2" ref="A1:H258" totalsRowShown="0">
-  <autoFilter ref="A1:H258" xr:uid="{68A64BE8-5F02-4EF3-AF08-278CE5962617}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{68A64BE8-5F02-4EF3-AF08-278CE5962617}" name="Table2" displayName="Table2" ref="A1:H272" totalsRowShown="0">
+  <autoFilter ref="A1:H272" xr:uid="{68A64BE8-5F02-4EF3-AF08-278CE5962617}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DEFA6BF8-A2D1-4542-BE9E-1734B3CE4C12}" name="ID #" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{DEFA6BF8-A2D1-4542-BE9E-1734B3CE4C12}" name="ID #" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{EC39C52A-245C-4739-A0DE-1CC44A746386}" name="Name"/>
     <tableColumn id="7" xr3:uid="{9586A26D-A2BA-42CA-A18F-27C6A232079F}" name="Color"/>
     <tableColumn id="3" xr3:uid="{92BB0B43-B454-4973-991F-ED8F32229EF2}" name="Alt Name"/>
@@ -2224,11 +2283,11 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{C95D6CE2-53D4-4F8C-BAB8-FD8AB6229BEA}" name="LDRAW CODE"/>
     <tableColumn id="2" xr3:uid="{E0A51C43-347C-486D-BBC7-02891E08D50A}" name="Hex Value"/>
-    <tableColumn id="3" xr3:uid="{63FB1E3E-2369-4474-8FF0-B5DA1C741016}" name="Name" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{5EABBA1B-7A5C-40D1-8E16-53F17548C387}" name="ID" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{63FB1E3E-2369-4474-8FF0-B5DA1C741016}" name="Name" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{5EABBA1B-7A5C-40D1-8E16-53F17548C387}" name="ID" dataDxfId="2">
       <calculatedColumnFormula>IF(LEN(MID(A2,6,LEN(A2)-2))=1,"00" &amp; MID(A2,6,LEN(A2)-2),IF(LEN(MID(A2,6,LEN(A2)-2)) = 2, "0" &amp; MID(A2,6,LEN(A2)-2),MID(A2,6,LEN(A2)-2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C4F089FA-4687-4737-BD9A-95673742978B}" name="Hex" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{C4F089FA-4687-4737-BD9A-95673742978B}" name="Hex" dataDxfId="1">
       <calculatedColumnFormula>"""" &amp; Table1[[#This Row],[Hex Value]] &amp; """" &amp; ","</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{FC32E2D1-7160-4078-8DB8-B5D8295CCC98}" name="Game ID"/>
@@ -2545,7 +2604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AE6699-DCF2-4B3F-A092-79CA25402A34}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2553,17 +2612,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>679</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>680</v>
+        <v>594</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>678</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -2573,10 +2632,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F7BB64-65A9-48C6-AE17-93F3C7222BE8}">
-  <dimension ref="A1:U258"/>
+  <dimension ref="A1:U272"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2599,54 +2658,54 @@
         <v>343</v>
       </c>
       <c r="C1" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="D1" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="E1" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="F1" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="G1" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="H1" t="s">
-        <v>675</v>
+        <v>589</v>
       </c>
       <c r="J1" t="s">
-        <v>635</v>
+        <v>549</v>
       </c>
       <c r="K1" t="s">
-        <v>636</v>
+        <v>550</v>
       </c>
       <c r="L1" t="s">
-        <v>638</v>
+        <v>552</v>
       </c>
       <c r="M1" t="s">
-        <v>639</v>
+        <v>553</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>677</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>352</v>
+      <c r="A2" s="4" t="s">
+        <v>595</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="G2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="H2" t="s">
-        <v>676</v>
+        <v>590</v>
       </c>
       <c r="J2" t="s">
-        <v>637</v>
+        <v>551</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -2660,23 +2719,23 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>353</v>
+      <c r="A3" s="4" t="s">
+        <v>596</v>
       </c>
       <c r="B3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3" t="s">
         <v>388</v>
       </c>
-      <c r="F3" t="s">
-        <v>409</v>
-      </c>
       <c r="G3" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="H3" t="s">
-        <v>676</v>
+        <v>590</v>
       </c>
       <c r="J3" t="s">
-        <v>632</v>
+        <v>546</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -2690,8 +2749,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>354</v>
+      <c r="A4" s="4" t="s">
+        <v>597</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2700,19 +2759,19 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="E4" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="H4" t="s">
-        <v>676</v>
+        <v>590</v>
       </c>
       <c r="J4" t="s">
-        <v>633</v>
+        <v>547</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -2726,8 +2785,8 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>355</v>
+      <c r="A5" s="4" t="s">
+        <v>598</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -2736,19 +2795,19 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="E5" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="F5" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="H5" t="s">
-        <v>676</v>
+        <v>590</v>
       </c>
       <c r="J5" t="s">
-        <v>634</v>
+        <v>548</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -2762,8 +2821,8 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>356</v>
+      <c r="A6" s="4" t="s">
+        <v>599</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -2772,21 +2831,21 @@
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="E6" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="F6" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="H6" t="s">
-        <v>676</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>357</v>
+      <c r="A7" s="4" t="s">
+        <v>600</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -2795,116 +2854,124 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="E7" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="F7" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="H7" t="s">
-        <v>676</v>
+        <v>590</v>
       </c>
       <c r="J7" t="s">
-        <v>646</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E8" t="s">
-        <v>409</v>
-      </c>
-      <c r="F8" t="s">
-        <v>409</v>
-      </c>
-      <c r="H8" t="s">
-        <v>676</v>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>590</v>
       </c>
       <c r="J8" t="s">
-        <v>640</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E9" t="s">
-        <v>409</v>
-      </c>
-      <c r="F9" t="s">
-        <v>409</v>
-      </c>
-      <c r="H9" t="s">
-        <v>676</v>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>590</v>
       </c>
       <c r="J9" t="s">
-        <v>641</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E10" t="s">
-        <v>409</v>
-      </c>
-      <c r="F10" t="s">
-        <v>409</v>
-      </c>
-      <c r="H10" t="s">
-        <v>676</v>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>590</v>
       </c>
       <c r="J10" t="s">
-        <v>642</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E11" t="s">
-        <v>409</v>
-      </c>
-      <c r="F11" t="s">
-        <v>409</v>
-      </c>
-      <c r="H11" t="s">
-        <v>676</v>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>590</v>
       </c>
       <c r="J11" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>362</v>
+      <c r="A12" s="4" t="s">
+        <v>601</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -2913,21 +2980,21 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="F12" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="H12" t="s">
-        <v>676</v>
+        <v>590</v>
       </c>
       <c r="J12" t="s">
-        <v>644</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>363</v>
+      <c r="A13" s="4" t="s">
+        <v>602</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -2936,64 +3003,68 @@
         <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="F13" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="H13" t="s">
-        <v>676</v>
+        <v>590</v>
       </c>
       <c r="J13" t="s">
-        <v>645</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E14" t="s">
-        <v>409</v>
-      </c>
-      <c r="F14" t="s">
-        <v>409</v>
-      </c>
-      <c r="H14" t="s">
-        <v>676</v>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>590</v>
       </c>
       <c r="J14" t="s">
-        <v>674</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E15" t="s">
-        <v>409</v>
-      </c>
-      <c r="F15" t="s">
-        <v>409</v>
-      </c>
-      <c r="H15" t="s">
-        <v>676</v>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>366</v>
+      <c r="A16" s="4" t="s">
+        <v>603</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -3002,167 +3073,175 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="F16" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="H16" t="s">
-        <v>676</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E17" t="s">
-        <v>409</v>
-      </c>
-      <c r="F17" t="s">
-        <v>409</v>
-      </c>
-      <c r="H17" t="s">
-        <v>676</v>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E18" t="s">
-        <v>409</v>
-      </c>
-      <c r="F18" t="s">
-        <v>409</v>
-      </c>
-      <c r="H18" t="s">
-        <v>676</v>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>590</v>
       </c>
       <c r="J18" t="s">
-        <v>669</v>
+        <v>583</v>
       </c>
       <c r="P18" t="s">
-        <v>667</v>
+        <v>581</v>
       </c>
       <c r="Q18" t="s">
-        <v>668</v>
+        <v>582</v>
       </c>
       <c r="R18" t="s">
-        <v>666</v>
+        <v>580</v>
       </c>
       <c r="S18" t="s">
-        <v>665</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B19" t="s">
-        <v>398</v>
-      </c>
-      <c r="C19" t="s">
-        <v>398</v>
-      </c>
-      <c r="E19" t="s">
-        <v>409</v>
-      </c>
-      <c r="F19" t="s">
-        <v>409</v>
-      </c>
-      <c r="H19" t="s">
-        <v>676</v>
+      <c r="A19" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>590</v>
       </c>
       <c r="J19" t="s">
-        <v>656</v>
+        <v>570</v>
       </c>
       <c r="K19" t="s">
-        <v>651</v>
+        <v>565</v>
       </c>
       <c r="L19" t="s">
-        <v>649</v>
+        <v>563</v>
       </c>
       <c r="M19" t="s">
-        <v>653</v>
+        <v>567</v>
       </c>
       <c r="P19" t="s">
-        <v>651</v>
+        <v>565</v>
       </c>
       <c r="Q19" t="s">
-        <v>649</v>
+        <v>563</v>
       </c>
       <c r="R19" t="s">
-        <v>653</v>
+        <v>567</v>
       </c>
       <c r="S19" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="T19" t="s">
-        <v>656</v>
+        <v>570</v>
       </c>
       <c r="U19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="J20" t="s">
+        <v>586</v>
+      </c>
+      <c r="K20" t="s">
+        <v>568</v>
+      </c>
+      <c r="P20" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>564</v>
+      </c>
+      <c r="R20" t="s">
+        <v>566</v>
+      </c>
+      <c r="S20" t="s">
         <v>370</v>
       </c>
-      <c r="B20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E20" t="s">
-        <v>409</v>
-      </c>
-      <c r="F20" t="s">
-        <v>409</v>
-      </c>
-      <c r="H20" t="s">
-        <v>676</v>
-      </c>
-      <c r="J20" t="s">
-        <v>672</v>
-      </c>
-      <c r="K20" t="s">
-        <v>654</v>
-      </c>
-      <c r="P20" t="s">
-        <v>654</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>650</v>
-      </c>
-      <c r="R20" t="s">
-        <v>652</v>
-      </c>
-      <c r="S20" t="s">
-        <v>391</v>
-      </c>
       <c r="T20" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="U20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>371</v>
+      <c r="A21" s="4" t="s">
+        <v>604</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -3171,167 +3250,175 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="E21" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="F21" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="H21" t="s">
-        <v>676</v>
+        <v>590</v>
       </c>
       <c r="J21" t="s">
-        <v>648</v>
+        <v>562</v>
       </c>
       <c r="L21" t="s">
-        <v>650</v>
+        <v>564</v>
       </c>
       <c r="Q21" t="s">
-        <v>655</v>
+        <v>569</v>
       </c>
       <c r="S21" t="s">
-        <v>661</v>
+        <v>575</v>
       </c>
       <c r="T21" t="s">
-        <v>660</v>
+        <v>574</v>
       </c>
       <c r="U21">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E22" t="s">
-        <v>409</v>
-      </c>
-      <c r="F22" t="s">
-        <v>409</v>
-      </c>
-      <c r="H22" t="s">
-        <v>676</v>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>590</v>
       </c>
       <c r="J22" t="s">
-        <v>671</v>
+        <v>585</v>
       </c>
       <c r="S22" t="s">
-        <v>662</v>
+        <v>576</v>
       </c>
       <c r="T22" t="s">
-        <v>648</v>
+        <v>562</v>
       </c>
       <c r="U22">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E23" t="s">
-        <v>409</v>
-      </c>
-      <c r="F23" t="s">
-        <v>409</v>
-      </c>
-      <c r="H23" t="s">
-        <v>676</v>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>590</v>
       </c>
       <c r="J23" t="s">
-        <v>673</v>
+        <v>587</v>
       </c>
       <c r="S23" t="s">
-        <v>657</v>
+        <v>571</v>
       </c>
       <c r="T23" t="s">
-        <v>659</v>
+        <v>573</v>
       </c>
       <c r="U23">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E24" t="s">
-        <v>409</v>
-      </c>
-      <c r="F24" t="s">
-        <v>409</v>
-      </c>
-      <c r="H24" t="s">
-        <v>676</v>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>590</v>
       </c>
       <c r="J24" t="s">
-        <v>647</v>
+        <v>561</v>
       </c>
       <c r="L24" t="s">
-        <v>655</v>
+        <v>569</v>
       </c>
       <c r="S24" t="s">
-        <v>663</v>
+        <v>577</v>
       </c>
       <c r="T24" t="s">
-        <v>670</v>
+        <v>584</v>
       </c>
       <c r="U24">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="A25" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E25" t="s">
-        <v>409</v>
-      </c>
-      <c r="F25" t="s">
-        <v>409</v>
-      </c>
-      <c r="H25" t="s">
-        <v>676</v>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>590</v>
       </c>
       <c r="S25" t="s">
-        <v>664</v>
+        <v>578</v>
       </c>
       <c r="T25" t="s">
-        <v>658</v>
+        <v>572</v>
       </c>
       <c r="U25">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>376</v>
+      <c r="A26" s="4" t="s">
+        <v>605</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -3340,1301 +3427,1371 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>388</v>
+      </c>
+      <c r="F26" t="s">
+        <v>388</v>
+      </c>
+      <c r="H26" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E27" t="s">
+        <v>388</v>
+      </c>
+      <c r="F27" t="s">
+        <v>388</v>
+      </c>
+      <c r="H27" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B28" t="s">
+        <v>379</v>
+      </c>
+      <c r="E28" t="s">
+        <v>388</v>
+      </c>
+      <c r="F28" t="s">
+        <v>388</v>
+      </c>
+      <c r="H28" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B29" t="s">
+        <v>380</v>
+      </c>
+      <c r="E29" t="s">
+        <v>388</v>
+      </c>
+      <c r="F29" t="s">
+        <v>388</v>
+      </c>
+      <c r="H29" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="B30" t="s">
+        <v>381</v>
+      </c>
+      <c r="E30" t="s">
+        <v>388</v>
+      </c>
+      <c r="F30" t="s">
+        <v>388</v>
+      </c>
+      <c r="H30" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B31" t="s">
+        <v>382</v>
+      </c>
+      <c r="E31" t="s">
+        <v>388</v>
+      </c>
+      <c r="F31" t="s">
+        <v>388</v>
+      </c>
+      <c r="H31" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B32" t="s">
+        <v>383</v>
+      </c>
+      <c r="E32" t="s">
+        <v>388</v>
+      </c>
+      <c r="F32" t="s">
+        <v>388</v>
+      </c>
+      <c r="H32" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="B33" t="s">
+        <v>380</v>
+      </c>
+      <c r="E33" t="s">
+        <v>388</v>
+      </c>
+      <c r="F33" t="s">
+        <v>388</v>
+      </c>
+      <c r="H33" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B34" t="s">
+        <v>384</v>
+      </c>
+      <c r="E34" t="s">
+        <v>388</v>
+      </c>
+      <c r="F34" t="s">
+        <v>388</v>
+      </c>
+      <c r="H34" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B35" t="s">
+        <v>385</v>
+      </c>
+      <c r="E35" t="s">
+        <v>388</v>
+      </c>
+      <c r="F35" t="s">
+        <v>388</v>
+      </c>
+      <c r="H35" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B36" t="s">
+        <v>386</v>
+      </c>
+      <c r="E36" t="s">
+        <v>388</v>
+      </c>
+      <c r="F36" t="s">
+        <v>388</v>
+      </c>
+      <c r="H36" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="F26" t="s">
-        <v>409</v>
-      </c>
-      <c r="H26" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E27" t="s">
-        <v>409</v>
-      </c>
-      <c r="F27" t="s">
-        <v>409</v>
-      </c>
-      <c r="H27" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B28" t="s">
-        <v>400</v>
-      </c>
-      <c r="E28" t="s">
-        <v>409</v>
-      </c>
-      <c r="F28" t="s">
-        <v>409</v>
-      </c>
-      <c r="H28" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B29" t="s">
-        <v>401</v>
-      </c>
-      <c r="E29" t="s">
-        <v>409</v>
-      </c>
-      <c r="F29" t="s">
-        <v>409</v>
-      </c>
-      <c r="H29" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B30" t="s">
-        <v>402</v>
-      </c>
-      <c r="E30" t="s">
-        <v>409</v>
-      </c>
-      <c r="F30" t="s">
-        <v>409</v>
-      </c>
-      <c r="H30" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B31" t="s">
-        <v>403</v>
-      </c>
-      <c r="E31" t="s">
-        <v>409</v>
-      </c>
-      <c r="F31" t="s">
-        <v>409</v>
-      </c>
-      <c r="H31" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B32" t="s">
-        <v>404</v>
-      </c>
-      <c r="E32" t="s">
-        <v>409</v>
-      </c>
-      <c r="F32" t="s">
-        <v>409</v>
-      </c>
-      <c r="H32" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B33" t="s">
-        <v>401</v>
-      </c>
-      <c r="E33" t="s">
-        <v>409</v>
-      </c>
-      <c r="F33" t="s">
-        <v>409</v>
-      </c>
-      <c r="H33" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B34" t="s">
-        <v>405</v>
-      </c>
-      <c r="E34" t="s">
-        <v>409</v>
-      </c>
-      <c r="F34" t="s">
-        <v>409</v>
-      </c>
-      <c r="H34" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B35" t="s">
-        <v>406</v>
-      </c>
-      <c r="E35" t="s">
-        <v>409</v>
-      </c>
-      <c r="F35" t="s">
-        <v>409</v>
-      </c>
-      <c r="H35" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B36" t="s">
-        <v>407</v>
-      </c>
-      <c r="E36" t="s">
-        <v>409</v>
-      </c>
-      <c r="F36" t="s">
-        <v>409</v>
-      </c>
-      <c r="H36" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="4" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="4" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="4" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="4" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="4" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="4" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="4" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="4" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="4" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="4" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="4" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="4" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="4" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="4" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="4" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="4" t="s">
         <v>545</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="2" t="s">
-        <v>631</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2 A3:A36 A37:A258" numberStoredAsText="1"/>
+    <ignoredError sqref="A8:A11 A14:A15 A17:A20 A22:A25" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
